--- a/tf_figure/chloroplast.xlsx
+++ b/tf_figure/chloroplast.xlsx
@@ -15,7 +15,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Reaction</t>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3-4</t>
+  </si>
+  <si>
+    <t>R5-7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
   </si>
   <si>
     <t>RuBP</t>
@@ -45,34 +72,7 @@
     <t>S7P</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3-4</t>
-  </si>
-  <si>
-    <t>R5-7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
+    <t>reversible</t>
   </si>
 </sst>
 </file>
@@ -627,171 +627,399 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" ht="14.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="K2" s="1"/>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1"/>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>-2</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1"/>
+      <c r="E4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="J5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>-1</v>
-      </c>
-      <c r="K7" s="1"/>
+      <c r="H7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="K8" s="1"/>
+      <c r="E8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E9">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="K9" s="1"/>
+      <c r="F9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="K10" s="1"/>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="1"/>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25"/>
+    <row r="14" ht="14.25"/>
+    <row r="15" ht="14.25"/>
+    <row r="16" ht="14.25"/>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25"/>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
